--- a/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS24-628/Notebook_Compiled_data/KD24_Raman_averaged.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS24-628/Notebook_Compiled_data/KD24_Raman_averaged.xlsx
@@ -1888,7 +1888,7 @@
         <v>209.0956166181467</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.01261532143208825</v>
+        <v>0.01261532143208826</v>
       </c>
       <c r="EV2" t="n">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>0.02643094759073177</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0001509061683307844</v>
+        <v>0.0001509061683307843</v>
       </c>
       <c r="FS2" t="n">
         <v>0.04899552457132562</v>
@@ -2433,7 +2433,7 @@
         <v>0.001837797114704219</v>
       </c>
       <c r="ER3" t="n">
-        <v>333.6764612936789</v>
+        <v>333.6764612936788</v>
       </c>
       <c r="ES3" t="n">
         <v>0.02010490664645269</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.9813132015562386</v>
+        <v>0.9813132015562385</v>
       </c>
       <c r="EX3" t="n">
         <v>0.04476677589763922</v>
@@ -2541,7 +2541,7 @@
         <v>3.127645801295048e-06</v>
       </c>
       <c r="GN3" t="n">
-        <v>3.182375069419084e-06</v>
+        <v>3.182375069419085e-06</v>
       </c>
       <c r="GO3" t="inlineStr"/>
       <c r="GP3" t="inlineStr"/>
@@ -2909,7 +2909,7 @@
         <v>0.003157209946599725</v>
       </c>
       <c r="DN4" t="n">
-        <v>8.736464129537923e-07</v>
+        <v>8.736464129537922e-07</v>
       </c>
       <c r="DO4" t="n">
         <v>0.02127851100894789</v>
@@ -2995,7 +2995,7 @@
         <v>0.002593562543087894</v>
       </c>
       <c r="ER4" t="n">
-        <v>43.23739157973355</v>
+        <v>43.23739157973356</v>
       </c>
       <c r="ES4" t="n">
         <v>0.0167379923114481</v>
@@ -3025,7 +3025,7 @@
         <v>2.740102061030526</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.09810711032835631</v>
+        <v>0.09810711032835633</v>
       </c>
       <c r="FC4" t="n">
         <v>0.1015307950594872</v>
@@ -3098,7 +3098,7 @@
       <c r="GG4" t="inlineStr"/>
       <c r="GH4" t="inlineStr"/>
       <c r="GI4" t="n">
-        <v>0.0193510187748918</v>
+        <v>0.01935101877489179</v>
       </c>
       <c r="GJ4" t="n">
         <v>0.007917200229636767</v>

--- a/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS24-628/Notebook_Compiled_data/KD24_Raman_averaged.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Data_processing_KS24-628/Notebook_Compiled_data/KD24_Raman_averaged.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GW57"/>
+  <dimension ref="A1:GV57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,35 +1425,30 @@
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>Name_on_SEM_Raman_STD</t>
+          <t>Notes regarding SEM matching_Raman_STD</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>Notes regarding SEM matching_Raman_STD</t>
+          <t>EBSD_simple_name_Raman_STD</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>EBSD_simple_name_Raman_STD</t>
+          <t>EBSD_grainID_Raman_STD</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>EBSD_grainID_Raman_STD</t>
+          <t>EBSDname+grainID_Raman_STD</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>EBSDname+grainID_Raman_STD</t>
+          <t>EBSD_comment_Raman_STD</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>EBSD_comment_Raman_STD</t>
-        </is>
-      </c>
-      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>averaged?</t>
         </is>
@@ -2007,8 +2002,7 @@
       <c r="GS2" t="inlineStr"/>
       <c r="GT2" t="inlineStr"/>
       <c r="GU2" t="inlineStr"/>
-      <c r="GV2" t="inlineStr"/>
-      <c r="GW2" t="inlineStr">
+      <c r="GV2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2556,8 +2550,7 @@
       <c r="GS3" t="inlineStr"/>
       <c r="GT3" t="inlineStr"/>
       <c r="GU3" t="inlineStr"/>
-      <c r="GV3" t="inlineStr"/>
-      <c r="GW3" t="inlineStr">
+      <c r="GV3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3105,8 +3098,7 @@
       <c r="GS4" t="inlineStr"/>
       <c r="GT4" t="inlineStr"/>
       <c r="GU4" t="inlineStr"/>
-      <c r="GV4" t="inlineStr"/>
-      <c r="GW4" t="inlineStr">
+      <c r="GV4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3450,7 +3442,11 @@
           <t>KD24_c001_a1_FIA</t>
         </is>
       </c>
-      <c r="DF5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>KD24_c001_a1</t>
+        </is>
+      </c>
       <c r="DG5" t="inlineStr"/>
       <c r="DH5" t="inlineStr"/>
       <c r="DI5" t="inlineStr"/>
@@ -3678,8 +3674,7 @@
       <c r="GS5" t="inlineStr"/>
       <c r="GT5" t="inlineStr"/>
       <c r="GU5" t="inlineStr"/>
-      <c r="GV5" t="inlineStr"/>
-      <c r="GW5" t="inlineStr">
+      <c r="GV5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -4003,7 +3998,11 @@
           <t>KD24_c001_a1_FIB</t>
         </is>
       </c>
-      <c r="DF6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>KD24_c001_a1</t>
+        </is>
+      </c>
       <c r="DG6" t="inlineStr"/>
       <c r="DH6" t="inlineStr"/>
       <c r="DI6" t="inlineStr"/>
@@ -4097,8 +4096,7 @@
       <c r="GS6" t="inlineStr"/>
       <c r="GT6" t="inlineStr"/>
       <c r="GU6" t="inlineStr"/>
-      <c r="GV6" t="inlineStr"/>
-      <c r="GW6" t="inlineStr">
+      <c r="GV6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4442,7 +4440,11 @@
           <t>KD24_c001_a1_FIC</t>
         </is>
       </c>
-      <c r="DF7" t="inlineStr"/>
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>KD24_c001_a1</t>
+        </is>
+      </c>
       <c r="DG7" t="inlineStr"/>
       <c r="DH7" t="inlineStr"/>
       <c r="DI7" t="inlineStr"/>
@@ -4536,8 +4538,7 @@
       <c r="GS7" t="inlineStr"/>
       <c r="GT7" t="inlineStr"/>
       <c r="GU7" t="inlineStr"/>
-      <c r="GV7" t="inlineStr"/>
-      <c r="GW7" t="inlineStr">
+      <c r="GV7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -4887,7 +4888,11 @@
           <t>KD24_c002_a1_FIA</t>
         </is>
       </c>
-      <c r="DF8" t="inlineStr"/>
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>KD24_c002_a1</t>
+        </is>
+      </c>
       <c r="DG8" t="inlineStr"/>
       <c r="DH8" t="inlineStr"/>
       <c r="DI8" t="inlineStr"/>
@@ -4981,8 +4986,7 @@
       <c r="GS8" t="inlineStr"/>
       <c r="GT8" t="inlineStr"/>
       <c r="GU8" t="inlineStr"/>
-      <c r="GV8" t="inlineStr"/>
-      <c r="GW8" t="inlineStr">
+      <c r="GV8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -5320,7 +5324,11 @@
           <t>KD24_c003_a1_FIA</t>
         </is>
       </c>
-      <c r="DF9" t="inlineStr"/>
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>KD24_c003_a1</t>
+        </is>
+      </c>
       <c r="DG9" t="inlineStr"/>
       <c r="DH9" t="inlineStr"/>
       <c r="DI9" t="inlineStr"/>
@@ -5414,8 +5422,7 @@
       <c r="GS9" t="inlineStr"/>
       <c r="GT9" t="inlineStr"/>
       <c r="GU9" t="inlineStr"/>
-      <c r="GV9" t="inlineStr"/>
-      <c r="GW9" t="inlineStr">
+      <c r="GV9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -5753,7 +5760,11 @@
           <t>KD24_c003_a1_FIB</t>
         </is>
       </c>
-      <c r="DF10" t="inlineStr"/>
+      <c r="DF10" t="inlineStr">
+        <is>
+          <t>KD24_c003_a1</t>
+        </is>
+      </c>
       <c r="DG10" t="inlineStr"/>
       <c r="DH10" t="inlineStr"/>
       <c r="DI10" t="inlineStr"/>
@@ -5847,8 +5858,7 @@
       <c r="GS10" t="inlineStr"/>
       <c r="GT10" t="inlineStr"/>
       <c r="GU10" t="inlineStr"/>
-      <c r="GV10" t="inlineStr"/>
-      <c r="GW10" t="inlineStr">
+      <c r="GV10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -6186,7 +6196,11 @@
           <t>KD24_c003_a1_FIC</t>
         </is>
       </c>
-      <c r="DF11" t="inlineStr"/>
+      <c r="DF11" t="inlineStr">
+        <is>
+          <t>KD24_c003_a1</t>
+        </is>
+      </c>
       <c r="DG11" t="inlineStr"/>
       <c r="DH11" t="inlineStr"/>
       <c r="DI11" t="inlineStr"/>
@@ -6280,8 +6294,7 @@
       <c r="GS11" t="inlineStr"/>
       <c r="GT11" t="inlineStr"/>
       <c r="GU11" t="inlineStr"/>
-      <c r="GV11" t="inlineStr"/>
-      <c r="GW11" t="inlineStr">
+      <c r="GV11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -6619,7 +6632,11 @@
           <t>KD24_c003_a2_FID</t>
         </is>
       </c>
-      <c r="DF12" t="inlineStr"/>
+      <c r="DF12" t="inlineStr">
+        <is>
+          <t>KD24_c003_a2</t>
+        </is>
+      </c>
       <c r="DG12" t="inlineStr"/>
       <c r="DH12" t="inlineStr"/>
       <c r="DI12" t="inlineStr"/>
@@ -6713,8 +6730,7 @@
       <c r="GS12" t="inlineStr"/>
       <c r="GT12" t="inlineStr"/>
       <c r="GU12" t="inlineStr"/>
-      <c r="GV12" t="inlineStr"/>
-      <c r="GW12" t="inlineStr">
+      <c r="GV12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -7052,7 +7068,11 @@
           <t>KD24_c003_a2_FIE</t>
         </is>
       </c>
-      <c r="DF13" t="inlineStr"/>
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>KD24_c003_a2</t>
+        </is>
+      </c>
       <c r="DG13" t="inlineStr"/>
       <c r="DH13" t="inlineStr"/>
       <c r="DI13" t="inlineStr"/>
@@ -7146,8 +7166,7 @@
       <c r="GS13" t="inlineStr"/>
       <c r="GT13" t="inlineStr"/>
       <c r="GU13" t="inlineStr"/>
-      <c r="GV13" t="inlineStr"/>
-      <c r="GW13" t="inlineStr">
+      <c r="GV13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -7479,7 +7498,11 @@
           <t>KD24_c004_a1_FIA</t>
         </is>
       </c>
-      <c r="DF14" t="inlineStr"/>
+      <c r="DF14" t="inlineStr">
+        <is>
+          <t>KD24_c004_a1</t>
+        </is>
+      </c>
       <c r="DG14" t="inlineStr"/>
       <c r="DH14" t="inlineStr"/>
       <c r="DI14" t="inlineStr"/>
@@ -7573,8 +7596,7 @@
       <c r="GS14" t="inlineStr"/>
       <c r="GT14" t="inlineStr"/>
       <c r="GU14" t="inlineStr"/>
-      <c r="GV14" t="inlineStr"/>
-      <c r="GW14" t="inlineStr">
+      <c r="GV14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -7906,7 +7928,11 @@
           <t>KD24_c004_a1_FIB</t>
         </is>
       </c>
-      <c r="DF15" t="inlineStr"/>
+      <c r="DF15" t="inlineStr">
+        <is>
+          <t>KD24_c004_a1</t>
+        </is>
+      </c>
       <c r="DG15" t="inlineStr"/>
       <c r="DH15" t="inlineStr"/>
       <c r="DI15" t="inlineStr"/>
@@ -8000,8 +8026,7 @@
       <c r="GS15" t="inlineStr"/>
       <c r="GT15" t="inlineStr"/>
       <c r="GU15" t="inlineStr"/>
-      <c r="GV15" t="inlineStr"/>
-      <c r="GW15" t="inlineStr">
+      <c r="GV15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -8339,7 +8364,11 @@
           <t>KD24_c004_a1_FIC</t>
         </is>
       </c>
-      <c r="DF16" t="inlineStr"/>
+      <c r="DF16" t="inlineStr">
+        <is>
+          <t>KD24_c004_a1</t>
+        </is>
+      </c>
       <c r="DG16" t="inlineStr"/>
       <c r="DH16" t="inlineStr"/>
       <c r="DI16" t="inlineStr"/>
@@ -8433,8 +8462,7 @@
       <c r="GS16" t="inlineStr"/>
       <c r="GT16" t="inlineStr"/>
       <c r="GU16" t="inlineStr"/>
-      <c r="GV16" t="inlineStr"/>
-      <c r="GW16" t="inlineStr">
+      <c r="GV16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -8778,7 +8806,11 @@
           <t>KD24_c005_a1_FIA</t>
         </is>
       </c>
-      <c r="DF17" t="inlineStr"/>
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>KD24_c005_a1</t>
+        </is>
+      </c>
       <c r="DG17" t="inlineStr"/>
       <c r="DH17" t="inlineStr"/>
       <c r="DI17" t="inlineStr"/>
@@ -8872,8 +8904,7 @@
       <c r="GS17" t="inlineStr"/>
       <c r="GT17" t="inlineStr"/>
       <c r="GU17" t="inlineStr"/>
-      <c r="GV17" t="inlineStr"/>
-      <c r="GW17" t="inlineStr">
+      <c r="GV17" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -9217,7 +9248,11 @@
           <t>KD24_c006_a1_FIA</t>
         </is>
       </c>
-      <c r="DF18" t="inlineStr"/>
+      <c r="DF18" t="inlineStr">
+        <is>
+          <t>KD24_c006_a1</t>
+        </is>
+      </c>
       <c r="DG18" t="inlineStr"/>
       <c r="DH18" t="inlineStr"/>
       <c r="DI18" t="inlineStr"/>
@@ -9311,8 +9346,7 @@
       <c r="GS18" t="inlineStr"/>
       <c r="GT18" t="inlineStr"/>
       <c r="GU18" t="inlineStr"/>
-      <c r="GV18" t="inlineStr"/>
-      <c r="GW18" t="inlineStr">
+      <c r="GV18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -9642,7 +9676,11 @@
           <t>KD24_c007_a1_FIA</t>
         </is>
       </c>
-      <c r="DF19" t="inlineStr"/>
+      <c r="DF19" t="inlineStr">
+        <is>
+          <t>KD24_c007_a1</t>
+        </is>
+      </c>
       <c r="DG19" t="inlineStr"/>
       <c r="DH19" t="inlineStr"/>
       <c r="DI19" t="inlineStr"/>
@@ -9736,8 +9774,7 @@
       <c r="GS19" t="inlineStr"/>
       <c r="GT19" t="inlineStr"/>
       <c r="GU19" t="inlineStr"/>
-      <c r="GV19" t="inlineStr"/>
-      <c r="GW19" t="inlineStr">
+      <c r="GV19" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -10081,7 +10118,11 @@
           <t>KD24_c008_a1_FIA</t>
         </is>
       </c>
-      <c r="DF20" t="inlineStr"/>
+      <c r="DF20" t="inlineStr">
+        <is>
+          <t>KD24_c008_a1</t>
+        </is>
+      </c>
       <c r="DG20" t="inlineStr"/>
       <c r="DH20" t="inlineStr"/>
       <c r="DI20" t="inlineStr"/>
@@ -10175,8 +10216,7 @@
       <c r="GS20" t="inlineStr"/>
       <c r="GT20" t="inlineStr"/>
       <c r="GU20" t="inlineStr"/>
-      <c r="GV20" t="inlineStr"/>
-      <c r="GW20" t="inlineStr">
+      <c r="GV20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -10520,7 +10560,11 @@
           <t>KD24_c008_a1_FIB</t>
         </is>
       </c>
-      <c r="DF21" t="inlineStr"/>
+      <c r="DF21" t="inlineStr">
+        <is>
+          <t>KD24_c008_a1</t>
+        </is>
+      </c>
       <c r="DG21" t="inlineStr"/>
       <c r="DH21" t="inlineStr"/>
       <c r="DI21" t="inlineStr"/>
@@ -10614,8 +10658,7 @@
       <c r="GS21" t="inlineStr"/>
       <c r="GT21" t="inlineStr"/>
       <c r="GU21" t="inlineStr"/>
-      <c r="GV21" t="inlineStr"/>
-      <c r="GW21" t="inlineStr">
+      <c r="GV21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -10933,7 +10976,11 @@
           <t>KD24_c008_a1_FIC</t>
         </is>
       </c>
-      <c r="DF22" t="inlineStr"/>
+      <c r="DF22" t="inlineStr">
+        <is>
+          <t>KD24_c008_a1</t>
+        </is>
+      </c>
       <c r="DG22" t="inlineStr"/>
       <c r="DH22" t="inlineStr"/>
       <c r="DI22" t="inlineStr"/>
@@ -11027,8 +11074,7 @@
       <c r="GS22" t="inlineStr"/>
       <c r="GT22" t="inlineStr"/>
       <c r="GU22" t="inlineStr"/>
-      <c r="GV22" t="inlineStr"/>
-      <c r="GW22" t="inlineStr">
+      <c r="GV22" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -11346,7 +11392,11 @@
           <t>KD24_c009_a1_FIA</t>
         </is>
       </c>
-      <c r="DF23" t="inlineStr"/>
+      <c r="DF23" t="inlineStr">
+        <is>
+          <t>KD24_c009_a1</t>
+        </is>
+      </c>
       <c r="DG23" t="inlineStr"/>
       <c r="DH23" t="inlineStr"/>
       <c r="DI23" t="inlineStr"/>
@@ -11440,8 +11490,7 @@
       <c r="GS23" t="inlineStr"/>
       <c r="GT23" t="inlineStr"/>
       <c r="GU23" t="inlineStr"/>
-      <c r="GV23" t="inlineStr"/>
-      <c r="GW23" t="inlineStr">
+      <c r="GV23" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -11773,7 +11822,11 @@
           <t>KD24_c009_a2_FIB</t>
         </is>
       </c>
-      <c r="DF24" t="inlineStr"/>
+      <c r="DF24" t="inlineStr">
+        <is>
+          <t>KD24_c009_a2</t>
+        </is>
+      </c>
       <c r="DG24" t="inlineStr"/>
       <c r="DH24" t="inlineStr"/>
       <c r="DI24" t="inlineStr"/>
@@ -11867,8 +11920,7 @@
       <c r="GS24" t="inlineStr"/>
       <c r="GT24" t="inlineStr"/>
       <c r="GU24" t="inlineStr"/>
-      <c r="GV24" t="inlineStr"/>
-      <c r="GW24" t="inlineStr">
+      <c r="GV24" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -12212,7 +12264,11 @@
           <t>KD24_c010_a1_FIB</t>
         </is>
       </c>
-      <c r="DF25" t="inlineStr"/>
+      <c r="DF25" t="inlineStr">
+        <is>
+          <t>KD24_c010_a1</t>
+        </is>
+      </c>
       <c r="DG25" t="inlineStr"/>
       <c r="DH25" t="inlineStr"/>
       <c r="DI25" t="inlineStr"/>
@@ -12306,8 +12362,7 @@
       <c r="GS25" t="inlineStr"/>
       <c r="GT25" t="inlineStr"/>
       <c r="GU25" t="inlineStr"/>
-      <c r="GV25" t="inlineStr"/>
-      <c r="GW25" t="inlineStr">
+      <c r="GV25" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -12651,7 +12706,11 @@
           <t>KD24_c010_a1_FIC</t>
         </is>
       </c>
-      <c r="DF26" t="inlineStr"/>
+      <c r="DF26" t="inlineStr">
+        <is>
+          <t>KD24_c010_a1</t>
+        </is>
+      </c>
       <c r="DG26" t="inlineStr"/>
       <c r="DH26" t="inlineStr"/>
       <c r="DI26" t="inlineStr"/>
@@ -12745,8 +12804,7 @@
       <c r="GS26" t="inlineStr"/>
       <c r="GT26" t="inlineStr"/>
       <c r="GU26" t="inlineStr"/>
-      <c r="GV26" t="inlineStr"/>
-      <c r="GW26" t="inlineStr">
+      <c r="GV26" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -13078,7 +13136,11 @@
           <t>KD24_c011_a1_FIA</t>
         </is>
       </c>
-      <c r="DF27" t="inlineStr"/>
+      <c r="DF27" t="inlineStr">
+        <is>
+          <t>KD24_c011_a1</t>
+        </is>
+      </c>
       <c r="DG27" t="inlineStr"/>
       <c r="DH27" t="inlineStr"/>
       <c r="DI27" t="inlineStr"/>
@@ -13172,8 +13234,7 @@
       <c r="GS27" t="inlineStr"/>
       <c r="GT27" t="inlineStr"/>
       <c r="GU27" t="inlineStr"/>
-      <c r="GV27" t="inlineStr"/>
-      <c r="GW27" t="inlineStr">
+      <c r="GV27" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -13511,7 +13572,11 @@
           <t>KD24_c011_a1_FIB</t>
         </is>
       </c>
-      <c r="DF28" t="inlineStr"/>
+      <c r="DF28" t="inlineStr">
+        <is>
+          <t>KD24_c011_a1</t>
+        </is>
+      </c>
       <c r="DG28" t="inlineStr"/>
       <c r="DH28" t="inlineStr"/>
       <c r="DI28" t="inlineStr"/>
@@ -13605,8 +13670,7 @@
       <c r="GS28" t="inlineStr"/>
       <c r="GT28" t="inlineStr"/>
       <c r="GU28" t="inlineStr"/>
-      <c r="GV28" t="inlineStr"/>
-      <c r="GW28" t="inlineStr">
+      <c r="GV28" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -13950,7 +14014,11 @@
           <t>KD24_c012_a1_FIA</t>
         </is>
       </c>
-      <c r="DF29" t="inlineStr"/>
+      <c r="DF29" t="inlineStr">
+        <is>
+          <t>KD24_c012_a1</t>
+        </is>
+      </c>
       <c r="DG29" t="inlineStr"/>
       <c r="DH29" t="inlineStr"/>
       <c r="DI29" t="inlineStr"/>
@@ -14044,8 +14112,7 @@
       <c r="GS29" t="inlineStr"/>
       <c r="GT29" t="inlineStr"/>
       <c r="GU29" t="inlineStr"/>
-      <c r="GV29" t="inlineStr"/>
-      <c r="GW29" t="inlineStr">
+      <c r="GV29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -14383,7 +14450,11 @@
           <t>KD24_c012_a1_FIB</t>
         </is>
       </c>
-      <c r="DF30" t="inlineStr"/>
+      <c r="DF30" t="inlineStr">
+        <is>
+          <t>KD24_c012_a1</t>
+        </is>
+      </c>
       <c r="DG30" t="inlineStr"/>
       <c r="DH30" t="inlineStr"/>
       <c r="DI30" t="inlineStr"/>
@@ -14477,8 +14548,7 @@
       <c r="GS30" t="inlineStr"/>
       <c r="GT30" t="inlineStr"/>
       <c r="GU30" t="inlineStr"/>
-      <c r="GV30" t="inlineStr"/>
-      <c r="GW30" t="inlineStr">
+      <c r="GV30" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -14822,7 +14892,11 @@
           <t>KD24_c012_a1_FIC</t>
         </is>
       </c>
-      <c r="DF31" t="inlineStr"/>
+      <c r="DF31" t="inlineStr">
+        <is>
+          <t>KD24_c012_a1</t>
+        </is>
+      </c>
       <c r="DG31" t="inlineStr"/>
       <c r="DH31" t="inlineStr"/>
       <c r="DI31" t="inlineStr"/>
@@ -14916,8 +14990,7 @@
       <c r="GS31" t="inlineStr"/>
       <c r="GT31" t="inlineStr"/>
       <c r="GU31" t="inlineStr"/>
-      <c r="GV31" t="inlineStr"/>
-      <c r="GW31" t="inlineStr">
+      <c r="GV31" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -15255,7 +15328,11 @@
           <t>KD24_c012_a1_FID</t>
         </is>
       </c>
-      <c r="DF32" t="inlineStr"/>
+      <c r="DF32" t="inlineStr">
+        <is>
+          <t>KD24_c012_a1</t>
+        </is>
+      </c>
       <c r="DG32" t="inlineStr"/>
       <c r="DH32" t="inlineStr"/>
       <c r="DI32" t="inlineStr"/>
@@ -15349,8 +15426,7 @@
       <c r="GS32" t="inlineStr"/>
       <c r="GT32" t="inlineStr"/>
       <c r="GU32" t="inlineStr"/>
-      <c r="GV32" t="inlineStr"/>
-      <c r="GW32" t="inlineStr">
+      <c r="GV32" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -15682,7 +15758,11 @@
           <t>KD24_c014_a1_FIA</t>
         </is>
       </c>
-      <c r="DF33" t="inlineStr"/>
+      <c r="DF33" t="inlineStr">
+        <is>
+          <t>KD24_c014_a1</t>
+        </is>
+      </c>
       <c r="DG33" t="inlineStr"/>
       <c r="DH33" t="inlineStr"/>
       <c r="DI33" t="inlineStr"/>
@@ -15776,8 +15856,7 @@
       <c r="GS33" t="inlineStr"/>
       <c r="GT33" t="inlineStr"/>
       <c r="GU33" t="inlineStr"/>
-      <c r="GV33" t="inlineStr"/>
-      <c r="GW33" t="inlineStr">
+      <c r="GV33" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -16109,7 +16188,11 @@
           <t>KD24_c014_a2_FIB</t>
         </is>
       </c>
-      <c r="DF34" t="inlineStr"/>
+      <c r="DF34" t="inlineStr">
+        <is>
+          <t>KD24_c014_a2</t>
+        </is>
+      </c>
       <c r="DG34" t="inlineStr"/>
       <c r="DH34" t="inlineStr"/>
       <c r="DI34" t="inlineStr"/>
@@ -16203,8 +16286,7 @@
       <c r="GS34" t="inlineStr"/>
       <c r="GT34" t="inlineStr"/>
       <c r="GU34" t="inlineStr"/>
-      <c r="GV34" t="inlineStr"/>
-      <c r="GW34" t="inlineStr">
+      <c r="GV34" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -16542,7 +16624,11 @@
           <t>KD24_c016_a1_FIA</t>
         </is>
       </c>
-      <c r="DF35" t="inlineStr"/>
+      <c r="DF35" t="inlineStr">
+        <is>
+          <t>KD24_c016_a1</t>
+        </is>
+      </c>
       <c r="DG35" t="inlineStr"/>
       <c r="DH35" t="inlineStr"/>
       <c r="DI35" t="inlineStr"/>
@@ -16636,8 +16722,7 @@
       <c r="GS35" t="inlineStr"/>
       <c r="GT35" t="inlineStr"/>
       <c r="GU35" t="inlineStr"/>
-      <c r="GV35" t="inlineStr"/>
-      <c r="GW35" t="inlineStr">
+      <c r="GV35" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -16975,7 +17060,11 @@
           <t>KD24_c017_a1_FIA</t>
         </is>
       </c>
-      <c r="DF36" t="inlineStr"/>
+      <c r="DF36" t="inlineStr">
+        <is>
+          <t>KD24_c017_a1</t>
+        </is>
+      </c>
       <c r="DG36" t="inlineStr"/>
       <c r="DH36" t="inlineStr"/>
       <c r="DI36" t="inlineStr"/>
@@ -17069,8 +17158,7 @@
       <c r="GS36" t="inlineStr"/>
       <c r="GT36" t="inlineStr"/>
       <c r="GU36" t="inlineStr"/>
-      <c r="GV36" t="inlineStr"/>
-      <c r="GW36" t="inlineStr">
+      <c r="GV36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -17414,7 +17502,11 @@
           <t>KD24_c017_a2_FIB</t>
         </is>
       </c>
-      <c r="DF37" t="inlineStr"/>
+      <c r="DF37" t="inlineStr">
+        <is>
+          <t>KD24_c017_a2</t>
+        </is>
+      </c>
       <c r="DG37" t="inlineStr"/>
       <c r="DH37" t="inlineStr"/>
       <c r="DI37" t="inlineStr"/>
@@ -17508,8 +17600,7 @@
       <c r="GS37" t="inlineStr"/>
       <c r="GT37" t="inlineStr"/>
       <c r="GU37" t="inlineStr"/>
-      <c r="GV37" t="inlineStr"/>
-      <c r="GW37" t="inlineStr">
+      <c r="GV37" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -17853,7 +17944,11 @@
           <t>KD24_c018_a1_FIA</t>
         </is>
       </c>
-      <c r="DF38" t="inlineStr"/>
+      <c r="DF38" t="inlineStr">
+        <is>
+          <t>KD24_c018_a1</t>
+        </is>
+      </c>
       <c r="DG38" t="inlineStr"/>
       <c r="DH38" t="inlineStr"/>
       <c r="DI38" t="inlineStr"/>
@@ -17947,8 +18042,7 @@
       <c r="GS38" t="inlineStr"/>
       <c r="GT38" t="inlineStr"/>
       <c r="GU38" t="inlineStr"/>
-      <c r="GV38" t="inlineStr"/>
-      <c r="GW38" t="inlineStr">
+      <c r="GV38" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -18292,7 +18386,11 @@
           <t>KD24_c018_a1_FIB</t>
         </is>
       </c>
-      <c r="DF39" t="inlineStr"/>
+      <c r="DF39" t="inlineStr">
+        <is>
+          <t>KD24_c018_a1</t>
+        </is>
+      </c>
       <c r="DG39" t="inlineStr"/>
       <c r="DH39" t="inlineStr"/>
       <c r="DI39" t="inlineStr"/>
@@ -18386,8 +18484,7 @@
       <c r="GS39" t="inlineStr"/>
       <c r="GT39" t="inlineStr"/>
       <c r="GU39" t="inlineStr"/>
-      <c r="GV39" t="inlineStr"/>
-      <c r="GW39" t="inlineStr">
+      <c r="GV39" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -18731,7 +18828,11 @@
           <t>KD24_c020_a1_FIA</t>
         </is>
       </c>
-      <c r="DF40" t="inlineStr"/>
+      <c r="DF40" t="inlineStr">
+        <is>
+          <t>KD24_c020_a1</t>
+        </is>
+      </c>
       <c r="DG40" t="inlineStr"/>
       <c r="DH40" t="inlineStr"/>
       <c r="DI40" t="inlineStr"/>
@@ -18825,8 +18926,7 @@
       <c r="GS40" t="inlineStr"/>
       <c r="GT40" t="inlineStr"/>
       <c r="GU40" t="inlineStr"/>
-      <c r="GV40" t="inlineStr"/>
-      <c r="GW40" t="inlineStr">
+      <c r="GV40" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -19158,7 +19258,11 @@
           <t>KD24_c021_a2_FIB</t>
         </is>
       </c>
-      <c r="DF41" t="inlineStr"/>
+      <c r="DF41" t="inlineStr">
+        <is>
+          <t>KD24_c021_a2</t>
+        </is>
+      </c>
       <c r="DG41" t="inlineStr"/>
       <c r="DH41" t="inlineStr"/>
       <c r="DI41" t="inlineStr"/>
@@ -19252,8 +19356,7 @@
       <c r="GS41" t="inlineStr"/>
       <c r="GT41" t="inlineStr"/>
       <c r="GU41" t="inlineStr"/>
-      <c r="GV41" t="inlineStr"/>
-      <c r="GW41" t="inlineStr">
+      <c r="GV41" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -19583,7 +19686,11 @@
           <t>KD24_c023_a1_FIA</t>
         </is>
       </c>
-      <c r="DF42" t="inlineStr"/>
+      <c r="DF42" t="inlineStr">
+        <is>
+          <t>KD24_c023_a1</t>
+        </is>
+      </c>
       <c r="DG42" t="inlineStr"/>
       <c r="DH42" t="inlineStr"/>
       <c r="DI42" t="inlineStr"/>
@@ -19677,8 +19784,7 @@
       <c r="GS42" t="inlineStr"/>
       <c r="GT42" t="inlineStr"/>
       <c r="GU42" t="inlineStr"/>
-      <c r="GV42" t="inlineStr"/>
-      <c r="GW42" t="inlineStr">
+      <c r="GV42" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -20016,7 +20122,11 @@
           <t>KD24_c023_a1_FIB</t>
         </is>
       </c>
-      <c r="DF43" t="inlineStr"/>
+      <c r="DF43" t="inlineStr">
+        <is>
+          <t>KD24_c023_a1</t>
+        </is>
+      </c>
       <c r="DG43" t="inlineStr"/>
       <c r="DH43" t="inlineStr"/>
       <c r="DI43" t="inlineStr"/>
@@ -20110,8 +20220,7 @@
       <c r="GS43" t="inlineStr"/>
       <c r="GT43" t="inlineStr"/>
       <c r="GU43" t="inlineStr"/>
-      <c r="GV43" t="inlineStr"/>
-      <c r="GW43" t="inlineStr">
+      <c r="GV43" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -20455,7 +20564,11 @@
           <t>KD24_c023_a1_FIC</t>
         </is>
       </c>
-      <c r="DF44" t="inlineStr"/>
+      <c r="DF44" t="inlineStr">
+        <is>
+          <t>KD24_c023_a1</t>
+        </is>
+      </c>
       <c r="DG44" t="inlineStr"/>
       <c r="DH44" t="inlineStr"/>
       <c r="DI44" t="inlineStr"/>
@@ -20549,8 +20662,7 @@
       <c r="GS44" t="inlineStr"/>
       <c r="GT44" t="inlineStr"/>
       <c r="GU44" t="inlineStr"/>
-      <c r="GV44" t="inlineStr"/>
-      <c r="GW44" t="inlineStr">
+      <c r="GV44" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -20894,7 +21006,11 @@
           <t>KD24_c024_a1_FIA</t>
         </is>
       </c>
-      <c r="DF45" t="inlineStr"/>
+      <c r="DF45" t="inlineStr">
+        <is>
+          <t>KD24_c024_a1</t>
+        </is>
+      </c>
       <c r="DG45" t="inlineStr"/>
       <c r="DH45" t="inlineStr"/>
       <c r="DI45" t="inlineStr"/>
@@ -20988,8 +21104,7 @@
       <c r="GS45" t="inlineStr"/>
       <c r="GT45" t="inlineStr"/>
       <c r="GU45" t="inlineStr"/>
-      <c r="GV45" t="inlineStr"/>
-      <c r="GW45" t="inlineStr">
+      <c r="GV45" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -21319,7 +21434,11 @@
           <t>KD24_c026_a1_FIA</t>
         </is>
       </c>
-      <c r="DF46" t="inlineStr"/>
+      <c r="DF46" t="inlineStr">
+        <is>
+          <t>KD24_c026_a1</t>
+        </is>
+      </c>
       <c r="DG46" t="inlineStr"/>
       <c r="DH46" t="inlineStr"/>
       <c r="DI46" t="inlineStr"/>
@@ -21413,8 +21532,7 @@
       <c r="GS46" t="inlineStr"/>
       <c r="GT46" t="inlineStr"/>
       <c r="GU46" t="inlineStr"/>
-      <c r="GV46" t="inlineStr"/>
-      <c r="GW46" t="inlineStr">
+      <c r="GV46" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -21758,7 +21876,11 @@
           <t>KD24_c026_a2_FIB</t>
         </is>
       </c>
-      <c r="DF47" t="inlineStr"/>
+      <c r="DF47" t="inlineStr">
+        <is>
+          <t>KD24_c026_a2</t>
+        </is>
+      </c>
       <c r="DG47" t="inlineStr"/>
       <c r="DH47" t="inlineStr"/>
       <c r="DI47" t="inlineStr"/>
@@ -21852,8 +21974,7 @@
       <c r="GS47" t="inlineStr"/>
       <c r="GT47" t="inlineStr"/>
       <c r="GU47" t="inlineStr"/>
-      <c r="GV47" t="inlineStr"/>
-      <c r="GW47" t="inlineStr">
+      <c r="GV47" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -22197,7 +22318,11 @@
           <t>KD24_c026_a3_FID</t>
         </is>
       </c>
-      <c r="DF48" t="inlineStr"/>
+      <c r="DF48" t="inlineStr">
+        <is>
+          <t>KD24_c026_a3</t>
+        </is>
+      </c>
       <c r="DG48" t="inlineStr"/>
       <c r="DH48" t="inlineStr"/>
       <c r="DI48" t="inlineStr"/>
@@ -22291,8 +22416,7 @@
       <c r="GS48" t="inlineStr"/>
       <c r="GT48" t="inlineStr"/>
       <c r="GU48" t="inlineStr"/>
-      <c r="GV48" t="inlineStr"/>
-      <c r="GW48" t="inlineStr">
+      <c r="GV48" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -22636,7 +22760,11 @@
           <t>KD24_c028_a1_FIA</t>
         </is>
       </c>
-      <c r="DF49" t="inlineStr"/>
+      <c r="DF49" t="inlineStr">
+        <is>
+          <t>KD24_c028_a1</t>
+        </is>
+      </c>
       <c r="DG49" t="inlineStr"/>
       <c r="DH49" t="inlineStr"/>
       <c r="DI49" t="inlineStr"/>
@@ -22730,8 +22858,7 @@
       <c r="GS49" t="inlineStr"/>
       <c r="GT49" t="inlineStr"/>
       <c r="GU49" t="inlineStr"/>
-      <c r="GV49" t="inlineStr"/>
-      <c r="GW49" t="inlineStr">
+      <c r="GV49" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -23061,7 +23188,11 @@
           <t>KD24_c029_a1_FIA</t>
         </is>
       </c>
-      <c r="DF50" t="inlineStr"/>
+      <c r="DF50" t="inlineStr">
+        <is>
+          <t>KD24_c029_a1</t>
+        </is>
+      </c>
       <c r="DG50" t="inlineStr"/>
       <c r="DH50" t="inlineStr"/>
       <c r="DI50" t="inlineStr"/>
@@ -23155,8 +23286,7 @@
       <c r="GS50" t="inlineStr"/>
       <c r="GT50" t="inlineStr"/>
       <c r="GU50" t="inlineStr"/>
-      <c r="GV50" t="inlineStr"/>
-      <c r="GW50" t="inlineStr">
+      <c r="GV50" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -23500,7 +23630,11 @@
           <t>KD24_c029_a1_FIB</t>
         </is>
       </c>
-      <c r="DF51" t="inlineStr"/>
+      <c r="DF51" t="inlineStr">
+        <is>
+          <t>KD24_c029_a1</t>
+        </is>
+      </c>
       <c r="DG51" t="inlineStr"/>
       <c r="DH51" t="inlineStr"/>
       <c r="DI51" t="inlineStr"/>
@@ -23594,8 +23728,7 @@
       <c r="GS51" t="inlineStr"/>
       <c r="GT51" t="inlineStr"/>
       <c r="GU51" t="inlineStr"/>
-      <c r="GV51" t="inlineStr"/>
-      <c r="GW51" t="inlineStr">
+      <c r="GV51" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -23925,7 +24058,11 @@
           <t>KD24_c030_a1_FIA</t>
         </is>
       </c>
-      <c r="DF52" t="inlineStr"/>
+      <c r="DF52" t="inlineStr">
+        <is>
+          <t>KD24_c030_a1</t>
+        </is>
+      </c>
       <c r="DG52" t="inlineStr"/>
       <c r="DH52" t="inlineStr"/>
       <c r="DI52" t="inlineStr"/>
@@ -24019,8 +24156,7 @@
       <c r="GS52" t="inlineStr"/>
       <c r="GT52" t="inlineStr"/>
       <c r="GU52" t="inlineStr"/>
-      <c r="GV52" t="inlineStr"/>
-      <c r="GW52" t="inlineStr">
+      <c r="GV52" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -24338,7 +24474,11 @@
           <t>KD24_c031_a1_FIA</t>
         </is>
       </c>
-      <c r="DF53" t="inlineStr"/>
+      <c r="DF53" t="inlineStr">
+        <is>
+          <t>KD24_c031_a1</t>
+        </is>
+      </c>
       <c r="DG53" t="inlineStr"/>
       <c r="DH53" t="inlineStr"/>
       <c r="DI53" t="inlineStr"/>
@@ -24432,8 +24572,7 @@
       <c r="GS53" t="inlineStr"/>
       <c r="GT53" t="inlineStr"/>
       <c r="GU53" t="inlineStr"/>
-      <c r="GV53" t="inlineStr"/>
-      <c r="GW53" t="inlineStr">
+      <c r="GV53" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -24751,7 +24890,11 @@
           <t>KD24_c031_a2_FIB</t>
         </is>
       </c>
-      <c r="DF54" t="inlineStr"/>
+      <c r="DF54" t="inlineStr">
+        <is>
+          <t>KD24_c031_a2</t>
+        </is>
+      </c>
       <c r="DG54" t="inlineStr"/>
       <c r="DH54" t="inlineStr"/>
       <c r="DI54" t="inlineStr"/>
@@ -24845,8 +24988,7 @@
       <c r="GS54" t="inlineStr"/>
       <c r="GT54" t="inlineStr"/>
       <c r="GU54" t="inlineStr"/>
-      <c r="GV54" t="inlineStr"/>
-      <c r="GW54" t="inlineStr">
+      <c r="GV54" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -25176,7 +25318,11 @@
           <t>KD24_c031_a2_FIC</t>
         </is>
       </c>
-      <c r="DF55" t="inlineStr"/>
+      <c r="DF55" t="inlineStr">
+        <is>
+          <t>KD24_c031_a2</t>
+        </is>
+      </c>
       <c r="DG55" t="inlineStr"/>
       <c r="DH55" t="inlineStr"/>
       <c r="DI55" t="inlineStr"/>
@@ -25270,8 +25416,7 @@
       <c r="GS55" t="inlineStr"/>
       <c r="GT55" t="inlineStr"/>
       <c r="GU55" t="inlineStr"/>
-      <c r="GV55" t="inlineStr"/>
-      <c r="GW55" t="inlineStr">
+      <c r="GV55" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -25601,7 +25746,11 @@
           <t>KD24_c032_a1_FIA</t>
         </is>
       </c>
-      <c r="DF56" t="inlineStr"/>
+      <c r="DF56" t="inlineStr">
+        <is>
+          <t>KD24_c032_a1</t>
+        </is>
+      </c>
       <c r="DG56" t="inlineStr"/>
       <c r="DH56" t="inlineStr"/>
       <c r="DI56" t="inlineStr"/>
@@ -25695,8 +25844,7 @@
       <c r="GS56" t="inlineStr"/>
       <c r="GT56" t="inlineStr"/>
       <c r="GU56" t="inlineStr"/>
-      <c r="GV56" t="inlineStr"/>
-      <c r="GW56" t="inlineStr">
+      <c r="GV56" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -26040,7 +26188,11 @@
           <t>KD24_c033_a1_FIA</t>
         </is>
       </c>
-      <c r="DF57" t="inlineStr"/>
+      <c r="DF57" t="inlineStr">
+        <is>
+          <t>KD24_c033_a1</t>
+        </is>
+      </c>
       <c r="DG57" t="inlineStr"/>
       <c r="DH57" t="inlineStr"/>
       <c r="DI57" t="inlineStr"/>
@@ -26134,8 +26286,7 @@
       <c r="GS57" t="inlineStr"/>
       <c r="GT57" t="inlineStr"/>
       <c r="GU57" t="inlineStr"/>
-      <c r="GV57" t="inlineStr"/>
-      <c r="GW57" t="inlineStr">
+      <c r="GV57" t="inlineStr">
         <is>
           <t>No</t>
         </is>
